--- a/191021_Deuterium_Transfer_Peak_Areas.xlsx
+++ b/191021_Deuterium_Transfer_Peak_Areas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\Parker_research\GCMS_Stuff\191021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2812C6-52D6-48A8-B277-9D3706027416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3433F5DA-6B52-4715-8C0B-F7AB0BE9C539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4180" windowWidth="38400" windowHeight="15510" xr2:uid="{0C4FD04D-EEC1-4A1F-94F8-64C84F3860BB}"/>
+    <workbookView xWindow="2580" yWindow="60" windowWidth="18930" windowHeight="20190" xr2:uid="{0C4FD04D-EEC1-4A1F-94F8-64C84F3860BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="27">
   <si>
     <t>Species</t>
   </si>
@@ -90,9 +90,6 @@
     <t>#Type refers to deuterium labelled ants (L) vs unlabelled ants (U)</t>
   </si>
   <si>
-    <t>#Outlier: Beetle or ant crushed/Beetle or ant escaped from well/Ant not coated in any CHCs (Y), Beetle chomped (B), ant chomped (A), normal run (N)</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>#Outlier: Beetle or ant crushed/Beetle or ant escaped from well/Ant not coated in any CHCs (Y), Beetle chomped (B), ant chomped (A), ant injured from the beginning(I) , normal run (N)</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -462,15 +465,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9318726-D8BA-4845-AE33-2EE2376C2E04}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -480,7 +483,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -521,10 +524,10 @@
         <v>11</v>
       </c>
       <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
         <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -568,7 +571,7 @@
         <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -612,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -656,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -700,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -744,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -788,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -829,10 +832,10 @@
         <v>0.87</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -873,10 +876,10 @@
         <v>1.64</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -917,10 +920,10 @@
         <v>0.96</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -961,10 +964,10 @@
         <v>0.84</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1005,10 +1008,10 @@
         <v>1.25</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1049,10 +1052,10 @@
         <v>1.48</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -1093,10 +1096,10 @@
         <v>0.84</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -1137,10 +1140,10 @@
         <v>1.59</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -1181,10 +1184,10 @@
         <v>0.87</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -1225,10 +1228,10 @@
         <v>0.88</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -1269,10 +1272,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -1313,10 +1316,10 @@
         <v>1.74</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -1360,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -1404,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -1448,7 +1451,7 @@
         <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -1492,7 +1495,7 @@
         <v>12</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -1536,7 +1539,7 @@
         <v>12</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -1580,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -1621,10 +1624,10 @@
         <v>0.87</v>
       </c>
       <c r="M29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -1665,10 +1668,10 @@
         <v>1.05</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -1709,10 +1712,10 @@
         <v>0.97</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -1753,10 +1756,10 @@
         <v>0.85</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -1797,10 +1800,10 @@
         <v>0.92</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -1841,10 +1844,10 @@
         <v>1.49</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -1888,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -1932,7 +1935,7 @@
         <v>12</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
@@ -1976,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
@@ -2020,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="N38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -2064,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -2108,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -2152,7 +2155,7 @@
         <v>12</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -2196,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -2240,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -2284,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -2328,7 +2331,7 @@
         <v>12</v>
       </c>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -2372,7 +2375,7 @@
         <v>12</v>
       </c>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -2413,10 +2416,10 @@
         <v>0.89</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -2457,10 +2460,10 @@
         <v>0.87</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -2501,10 +2504,10 @@
         <v>0.92</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -2545,10 +2548,10 @@
         <v>0.89</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -2589,10 +2592,10 @@
         <v>0.81</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -2633,10 +2636,10 @@
         <v>1.57</v>
       </c>
       <c r="M52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
